--- a/artfynd/A 28836-2022.xlsx
+++ b/artfynd/A 28836-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72871343</v>
+        <v>94499215</v>
       </c>
       <c r="B2" t="n">
-        <v>99590</v>
+        <v>56859</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221333</v>
+        <v>103018</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trifolium montanum</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Pallas, 1764)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Dyvik, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>721706.6784319634</v>
+        <v>722412.1116719937</v>
       </c>
       <c r="R2" t="n">
-        <v>6640148.217632387</v>
+        <v>6640739.120328019</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +757,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-06-13</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +767,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-06-13</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,34 +784,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
+          <t>Jacob Törngren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
-        </is>
-      </c>
+          <t>Jacob Törngren</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94499215</v>
+        <v>95907760</v>
       </c>
       <c r="B3" t="n">
-        <v>56859</v>
+        <v>55649</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,35 +811,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103018</v>
+        <v>208255</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Zootoca vivipara</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
+          <t>(Jacquin, 1787)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Dyvik, Upl</t>
@@ -878,7 +882,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-09-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -888,7 +892,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-09-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -902,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -920,10 +925,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95907760</v>
+        <v>72871343</v>
       </c>
       <c r="B4" t="n">
-        <v>55649</v>
+        <v>99590</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,54 +937,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208255</v>
+        <v>221333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Zootoca vivipara</t>
+          <t>Trifolium montanum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Jacquin, 1787)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Dyvik, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>722412.1116719937</v>
+        <v>721706.6784319634</v>
       </c>
       <c r="R4" t="n">
-        <v>6640739.120328019</v>
+        <v>6640148.217632387</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1003,7 +995,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2018-06-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1013,7 +1005,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2018-06-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1027,22 +1019,30 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jacob Törngren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jacob Törngren</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
